--- a/hardware/non-cve wifi module/gerbers 1.10 4layer/ithowifi-bom-xlsx.xlsx
+++ b/hardware/non-cve wifi module/gerbers 1.10 4layer/ithowifi-bom-xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/ownCloud/SoftwareDevelopment/ithowifi/hardware/non-cve wifi module/gerbers 1.10 4layer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DBCCAA-2E6C-A246-955A-6D957B29CF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C7865C-BBEE-964A-8499-2AE9B59610F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5420" yWindow="3100" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>470uF</t>
   </si>
   <si>
-    <t>C_Elec_6.3x7.7</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>CH340C</t>
   </si>
   <si>
-    <t>C114446</t>
-  </si>
-  <si>
     <t>U5</t>
   </si>
   <si>
@@ -233,6 +227,12 @@
   </si>
   <si>
     <t>C45783</t>
+  </si>
+  <si>
+    <t>CP_EIA-7343-31_Kemet-D</t>
+  </si>
+  <si>
+    <t>C7229</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,27 +1108,27 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1136,10 +1136,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1147,16 +1147,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1164,10 +1164,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1189,72 +1189,72 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1262,55 +1262,55 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1321,52 +1321,52 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
       <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
         <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
